--- a/supplementary_file_S1/example/test_data.xlsx
+++ b/supplementary_file_S1/example/test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t xml:space="preserve">disease_name</t>
   </si>
@@ -58,46 +58,97 @@
     <t xml:space="preserve">approved_vaccine</t>
   </si>
   <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIRUS 1</t>
+    <t xml:space="preserve">pandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallpox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orthopoxvirus variolae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morbillivirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yersinia pestis</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACTERIA 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACTERIA 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACTERIA 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIRUS 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIRUS 3</t>
+    <t xml:space="preserve">Spanish Flu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Flu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong Flu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3N2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERS-CoV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow fever virus (YFV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-CoV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marburg virus disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marburg virus (MARV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassa Fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassa virus (LASV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebola virus disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebola virus (EBOV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zika virus infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zika virus (ZIKV)</t>
   </si>
 </sst>
 </file>
@@ -194,13 +245,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M:M"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.88"/>
@@ -254,245 +305,582 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">D2-C2</f>
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <f aca="false">I2-H2</f>
-        <v>4</v>
-      </c>
       <c r="K2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="G3" s="0" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">D3-C3</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="I3" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J3" s="0" t="n">
-        <f aca="false">I3-H3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="E4" s="0" t="n">
-        <f aca="false">D4-C4</f>
-        <v>2.5</v>
+        <v>0.37</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">I4-H4</f>
-        <v>1</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
-        <f aca="false">D5-C5</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>8</v>
+        <v>4.1</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.55</v>
+        <v>0.025</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J5" s="0" t="n">
-        <f aca="false">I5-H5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">D6-C6</f>
-        <v>2.6</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G6" s="0" t="n">
-        <v>0.8</v>
+        <v>0.002</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="n">
-        <f aca="false">I6-H6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J12" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="K12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3E-005</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">D7-C7</f>
-        <v>2</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">I7-H7</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>19</v>
+      <c r="I15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
